--- a/Telegram02_Software Requirement Specification.xlsx
+++ b/Telegram02_Software Requirement Specification.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha\Desktop\Final CNPM\Software-Engineering-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4548D9-39A4-4E26-8055-F52481E4C72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E5CE0-456A-4A20-8605-EB4A9CB1A73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="705" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="705" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,9 @@
     <sheet name="3.1.9 UC_CS thông báo tin nhắn" sheetId="33" r:id="rId13"/>
     <sheet name="3.1.10 UC_CS thông báo nhóm" sheetId="34" r:id="rId14"/>
     <sheet name="3.1.11 UC_Quyền riêngtư,bảo mật" sheetId="35" r:id="rId15"/>
-    <sheet name="3.1.12 UC_CapNhatThongTinCaNhan" sheetId="36" r:id="rId16"/>
-    <sheet name="3.1.13 UC_CapNhatAvatar" sheetId="37" r:id="rId17"/>
+    <sheet name="3.1.12 UC_CS cai dat chat" sheetId="36" r:id="rId16"/>
+    <sheet name="3.1.13 UC_Chinh sua profile" sheetId="37" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Introduction'!$A$1:$AJ$55</definedName>
@@ -38,8 +39,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3.1.1 UC_Đăng nhập'!$A$1:$AJ$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'3.1.10 UC_CS thông báo nhóm'!$A$1:$AJ$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'3.1.11 UC_Quyền riêngtư,bảo mật'!$A$1:$AJ$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'3.1.12 UC_CapNhatThongTinCaNhan'!$A$1:$AJ$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'3.1.13 UC_CapNhatAvatar'!$A$1:$AJ$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'3.1.12 UC_CS cai dat chat'!$A$1:$AJ$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'3.1.13 UC_Chinh sua profile'!$A$1:$AJ$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.2 UC_Nhập số điện thoại'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.1.3 UC_Chat với một người'!$A$1:$AJ$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'3.1.4 UC_Gửi tin nhắn'!$A$1:$AJ$60</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -373,34 +374,10 @@
     <t>External</t>
   </si>
   <si>
-    <t>Nhân viên đã đăng nhập vào hệ thống.</t>
-  </si>
-  <si>
     <t>ID: SI UC 003</t>
   </si>
   <si>
-    <t>NhanVien, NhanVienNhanSu</t>
-  </si>
-  <si>
     <t>chọn.</t>
-  </si>
-  <si>
-    <t>3. Nhân viên nhập thông tin cần chỉnh sửa.</t>
-  </si>
-  <si>
-    <t>4. Hệ thống kiểm tra dữ liệu nhập trên form.</t>
-  </si>
-  <si>
-    <t>5. Nhân viên ấn nút "Save" để lưu thông tin.</t>
-  </si>
-  <si>
-    <t>6. Hệ thống hiện popup yêu cầu xác nhận.</t>
-  </si>
-  <si>
-    <t>8. Hệ thống update dữ liệu và hiện thông báo cập nhật thành công.</t>
-  </si>
-  <si>
-    <t>4.1. Nếu dữ liệu không hợp lệ, nút "Save" sẽ disenble.</t>
   </si>
   <si>
     <t>Dữ liệu cập nhật hợp lệ.</t>
@@ -421,27 +398,6 @@
     <t>ID: SI UC 004</t>
   </si>
   <si>
-    <t>Chức năng này cho phép nhân viên cập nhật thông tin cá nhân của bản thân. Nếu là quyền nhân viên quản lý nhân sự thì có thể cập nhật thông tin cá nhân của bản thân và các nhân viên khác.</t>
-  </si>
-  <si>
-    <t>1. Nhân viên ấn vào nút "Edit Information"</t>
-  </si>
-  <si>
-    <t>2. Hệ thống hiển thị form chỉnh sửa thông tin cá nhân của nhân viên</t>
-  </si>
-  <si>
-    <t>7. Nhân viên chọn "OK".</t>
-  </si>
-  <si>
-    <t>7.1. Nhân viên chọn "Cancel" sẽ hủy thao tác cập nhật.</t>
-  </si>
-  <si>
-    <t>Cập nhật thành công thông tin cá nhân.</t>
-  </si>
-  <si>
-    <t>Cho phép cập  thông tin cá nhân.</t>
-  </si>
-  <si>
     <t>ID: SI UC 009</t>
   </si>
   <si>
@@ -452,36 +408,6 @@
   </si>
   <si>
     <t>ID: SI UC 012</t>
-  </si>
-  <si>
-    <t>Cap nhat avatar</t>
-  </si>
-  <si>
-    <t>Chức năng này cho phép nhân viên cập nhật ảnh đại diện cá nhân của bản thân. Nếu là quyền nhân viên quản lý nhân sự thì có thể cập ảnh đại diện cá nhân của bản thân và các nhân viên khác.</t>
-  </si>
-  <si>
-    <t>1. Nhân viên ấn vào nút "Change avatar"</t>
-  </si>
-  <si>
-    <t>3. Nhân viên nhập URL ảnh.</t>
-  </si>
-  <si>
-    <t>2. Hệ thống hiển thị form nhập URL ảnh(URL online).</t>
-  </si>
-  <si>
-    <t>5. Nhân viên ấn nút "Preview" để xem ảnh.</t>
-  </si>
-  <si>
-    <t>6. Hệ thống xử lý và hiển thị ảnh từ URL được nhập.</t>
-  </si>
-  <si>
-    <t>4.1. Nếu dữ liệu không hợp lệ, sẽ thông báo "Invalid URL"</t>
-  </si>
-  <si>
-    <t>Cập nhật thành công avatar cá nhân.</t>
-  </si>
-  <si>
-    <t>Cho phép cập nhật avatar cá nhân.</t>
   </si>
   <si>
     <t>ID: SI UC 013</t>
@@ -805,7 +731,37 @@
     <t>Cho phép xem các cài đặt hiện tại.</t>
   </si>
   <si>
-    <t>Chỉnh sửa quyền riêng tư và bảo mật</t>
+    <t>Chỉnh sửa cài đặt chat</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép người dùng chỉnh sửa cài đặt trong khi chat, tự động tải về ảnh, audio hoặc không.</t>
+  </si>
+  <si>
+    <t>1. Người dùng Switch tắt chức năng</t>
+  </si>
+  <si>
+    <t>2. Hệ thống lưu lại thay đổi người dùng.</t>
+  </si>
+  <si>
+    <t>Cập nhật các thay đổi của người dùng ngay lâp tức</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng switch on off</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa profile</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép người dùng chỉnh sửa các thông tin profile của người dùng và chỉnh sửa chat background</t>
+  </si>
+  <si>
+    <t>1.Người dùng ấn vào mục "Cài đặt"</t>
+  </si>
+  <si>
+    <t>2. Hệ thống hiện thị các thông tin profile hiện tại.</t>
+  </si>
+  <si>
+    <t>Cho phép cập nhật profile cá nhân</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2770,7 @@
           <xdr:col>30</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>152399</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2824,7 +2780,127 @@
                   <a14:compatExt spid="_x0000_s25602"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12AEF2F-0CD7-4B56-8CD7-BA77FF892E9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002640000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27651" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s27651"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000036C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28673" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s28673"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20963A2-A6AB-4EBA-B49F-03143E744A8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2869,55 +2945,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>94447</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28170</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="1733550"/>
-          <a:ext cx="6428572" cy="3238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3749,6 +3776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3954,6 +3982,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3970,7 +3999,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -5034,7 +5063,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -5061,7 +5090,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -5076,7 +5105,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -5116,7 +5145,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -5156,7 +5185,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -5232,7 +5261,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
       <c r="F37" s="189" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G37" s="189"/>
       <c r="H37" s="189"/>
@@ -5420,7 +5449,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -5439,7 +5468,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="97" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -5460,7 +5489,7 @@
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="94" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C43" s="95"/>
       <c r="D43" s="95"/>
@@ -5479,7 +5508,7 @@
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
       <c r="S43" s="94" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
@@ -5500,7 +5529,7 @@
     </row>
     <row r="44" spans="2:35">
       <c r="B44" s="94" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
@@ -5519,7 +5548,7 @@
       <c r="Q44" s="95"/>
       <c r="R44" s="96"/>
       <c r="S44" s="94" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="T44" s="95"/>
       <c r="U44" s="95"/>
@@ -5690,7 +5719,7 @@
     </row>
     <row r="49" spans="2:35">
       <c r="B49" s="97" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C49" s="92"/>
       <c r="D49" s="92"/>
@@ -5709,7 +5738,7 @@
       <c r="Q49" s="92"/>
       <c r="R49" s="93"/>
       <c r="S49" s="97" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="T49" s="92"/>
       <c r="U49" s="92"/>
@@ -5730,7 +5759,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="94" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C50" s="95"/>
       <c r="D50" s="95"/>
@@ -5810,7 +5839,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="189" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="G52" s="189"/>
       <c r="H52" s="189"/>
@@ -5850,7 +5879,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -5890,7 +5919,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
       <c r="F54" s="189" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G54" s="189"/>
       <c r="H54" s="189"/>
@@ -5930,7 +5959,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="189" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G55" s="189"/>
       <c r="H55" s="189"/>
@@ -6157,6 +6186,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6173,7 +6203,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -7237,7 +7267,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -7264,7 +7294,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -7279,7 +7309,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -7319,7 +7349,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -7359,7 +7389,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -7621,7 +7651,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -7640,7 +7670,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="94" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -7998,7 +8028,7 @@
       <c r="E52" s="51"/>
       <c r="F52" s="51"/>
       <c r="G52" s="133" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H52" s="131"/>
       <c r="I52" s="131"/>
@@ -8333,6 +8363,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8349,7 +8380,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -9413,7 +9444,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -9440,7 +9471,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -9455,7 +9486,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -9495,7 +9526,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -9535,7 +9566,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -9797,7 +9828,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -9816,7 +9847,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="94" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -10173,7 +10204,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="189" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G52" s="189"/>
       <c r="H52" s="189"/>
@@ -10516,6 +10547,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10532,7 +10564,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -11596,7 +11628,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -11623,7 +11655,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -11638,7 +11670,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -11678,7 +11710,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -11718,7 +11750,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -11997,7 +12029,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="94" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -12018,7 +12050,7 @@
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="97" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
@@ -12073,7 +12105,7 @@
       <c r="Q44" s="95"/>
       <c r="R44" s="96"/>
       <c r="S44" s="94" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="T44" s="95"/>
       <c r="U44" s="95"/>
@@ -12286,7 +12318,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
       <c r="F50" s="189" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G50" s="189"/>
       <c r="H50" s="189"/>
@@ -12326,7 +12358,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
       <c r="F51" s="189" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G51" s="189"/>
       <c r="H51" s="189"/>
@@ -12406,7 +12438,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -12633,6 +12665,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13713,7 +13746,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -13740,7 +13773,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -13755,7 +13788,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -13795,7 +13828,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -13835,7 +13868,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -14114,7 +14147,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="94" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -14135,7 +14168,7 @@
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="97" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
@@ -14190,7 +14223,7 @@
       <c r="Q44" s="95"/>
       <c r="R44" s="96"/>
       <c r="S44" s="94" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="T44" s="95"/>
       <c r="U44" s="95"/>
@@ -14403,7 +14436,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
       <c r="F50" s="189" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G50" s="189"/>
       <c r="H50" s="189"/>
@@ -14443,7 +14476,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
       <c r="F51" s="189" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G51" s="189"/>
       <c r="H51" s="189"/>
@@ -14523,7 +14556,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -14750,9 +14783,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
@@ -15830,7 +15864,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -15857,7 +15891,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -15872,7 +15906,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -15912,7 +15946,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -15952,7 +15986,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -16214,7 +16248,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -16233,7 +16267,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="94" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -16254,7 +16288,7 @@
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="97" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
@@ -16273,7 +16307,7 @@
       <c r="Q43" s="92"/>
       <c r="R43" s="93"/>
       <c r="S43" s="94" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="T43" s="92"/>
       <c r="U43" s="92"/>
@@ -16294,7 +16328,7 @@
     </row>
     <row r="44" spans="2:35">
       <c r="B44" s="94" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
@@ -16410,7 +16444,7 @@
     </row>
     <row r="47" spans="2:35">
       <c r="B47" s="97" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C47" s="92"/>
       <c r="D47" s="92"/>
@@ -16526,7 +16560,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
       <c r="F50" s="189" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G50" s="189"/>
       <c r="H50" s="189"/>
@@ -16646,7 +16680,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -16872,11 +16906,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
@@ -16889,7 +16924,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -17953,7 +17988,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -17980,7 +18015,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -17995,7 +18030,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -18035,7 +18070,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -18075,7 +18110,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -18337,7 +18372,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -18356,7 +18391,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="97" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -18376,9 +18411,7 @@
       <c r="AI42" s="93"/>
     </row>
     <row r="43" spans="2:35">
-      <c r="B43" s="94" t="s">
-        <v>97</v>
-      </c>
+      <c r="B43" s="94"/>
       <c r="C43" s="95"/>
       <c r="D43" s="95"/>
       <c r="E43" s="95"/>
@@ -18395,9 +18428,7 @@
       <c r="P43" s="95"/>
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
-      <c r="S43" s="94" t="s">
-        <v>98</v>
-      </c>
+      <c r="S43" s="94"/>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
       <c r="V43" s="95"/>
@@ -18416,9 +18447,7 @@
       <c r="AI43" s="96"/>
     </row>
     <row r="44" spans="2:35">
-      <c r="B44" s="94" t="s">
-        <v>99</v>
-      </c>
+      <c r="B44" s="94"/>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
       <c r="E44" s="95"/>
@@ -18435,9 +18464,7 @@
       <c r="P44" s="95"/>
       <c r="Q44" s="95"/>
       <c r="R44" s="96"/>
-      <c r="S44" s="94" t="s">
-        <v>100</v>
-      </c>
+      <c r="S44" s="94"/>
       <c r="T44" s="95"/>
       <c r="U44" s="95"/>
       <c r="V44" s="95"/>
@@ -18456,9 +18483,7 @@
       <c r="AI44" s="96"/>
     </row>
     <row r="45" spans="2:35">
-      <c r="B45" s="94" t="s">
-        <v>112</v>
-      </c>
+      <c r="B45" s="94"/>
       <c r="C45" s="95"/>
       <c r="D45" s="95"/>
       <c r="E45" s="95"/>
@@ -18475,9 +18500,7 @@
       <c r="P45" s="95"/>
       <c r="Q45" s="95"/>
       <c r="R45" s="96"/>
-      <c r="S45" s="94" t="s">
-        <v>101</v>
-      </c>
+      <c r="S45" s="94"/>
       <c r="T45" s="95"/>
       <c r="U45" s="95"/>
       <c r="V45" s="95"/>
@@ -18610,9 +18633,7 @@
       <c r="AI48" s="70"/>
     </row>
     <row r="49" spans="2:35">
-      <c r="B49" s="97" t="s">
-        <v>113</v>
-      </c>
+      <c r="B49" s="97"/>
       <c r="C49" s="92"/>
       <c r="D49" s="92"/>
       <c r="E49" s="92"/>
@@ -18629,9 +18650,7 @@
       <c r="P49" s="92"/>
       <c r="Q49" s="92"/>
       <c r="R49" s="93"/>
-      <c r="S49" s="97" t="s">
-        <v>102</v>
-      </c>
+      <c r="S49" s="97"/>
       <c r="T49" s="92"/>
       <c r="U49" s="92"/>
       <c r="V49" s="92"/>
@@ -18729,7 +18748,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="189" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G52" s="189"/>
       <c r="H52" s="189"/>
@@ -18769,7 +18788,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -18808,9 +18827,7 @@
       <c r="C54" s="51"/>
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
-      <c r="F54" s="189" t="s">
-        <v>103</v>
-      </c>
+      <c r="F54" s="189"/>
       <c r="G54" s="189"/>
       <c r="H54" s="189"/>
       <c r="I54" s="189"/>
@@ -18849,7 +18866,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="189" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="G55" s="189"/>
       <c r="H55" s="189"/>
@@ -19042,15 +19059,45 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="27651" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="27651" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
@@ -19063,7 +19110,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -20127,7 +20174,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -20154,7 +20201,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -20169,7 +20216,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -20209,7 +20256,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -20249,7 +20296,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -20511,7 +20558,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -20530,7 +20577,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="97" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -20550,9 +20597,7 @@
       <c r="AI42" s="93"/>
     </row>
     <row r="43" spans="2:35">
-      <c r="B43" s="94" t="s">
-        <v>123</v>
-      </c>
+      <c r="B43" s="94"/>
       <c r="C43" s="95"/>
       <c r="D43" s="95"/>
       <c r="E43" s="95"/>
@@ -20569,9 +20614,7 @@
       <c r="P43" s="95"/>
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
-      <c r="S43" s="94" t="s">
-        <v>98</v>
-      </c>
+      <c r="S43" s="94"/>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
       <c r="V43" s="95"/>
@@ -20590,9 +20633,7 @@
       <c r="AI43" s="96"/>
     </row>
     <row r="44" spans="2:35">
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
+      <c r="B44" s="94"/>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
       <c r="E44" s="95"/>
@@ -20609,9 +20650,7 @@
       <c r="P44" s="95"/>
       <c r="Q44" s="95"/>
       <c r="R44" s="96"/>
-      <c r="S44" s="94" t="s">
-        <v>126</v>
-      </c>
+      <c r="S44" s="94"/>
       <c r="T44" s="95"/>
       <c r="U44" s="95"/>
       <c r="V44" s="95"/>
@@ -20630,9 +20669,7 @@
       <c r="AI44" s="96"/>
     </row>
     <row r="45" spans="2:35">
-      <c r="B45" s="94" t="s">
-        <v>112</v>
-      </c>
+      <c r="B45" s="94"/>
       <c r="C45" s="95"/>
       <c r="D45" s="95"/>
       <c r="E45" s="95"/>
@@ -20649,9 +20686,7 @@
       <c r="P45" s="95"/>
       <c r="Q45" s="95"/>
       <c r="R45" s="96"/>
-      <c r="S45" s="94" t="s">
-        <v>101</v>
-      </c>
+      <c r="S45" s="94"/>
       <c r="T45" s="95"/>
       <c r="U45" s="95"/>
       <c r="V45" s="95"/>
@@ -20784,9 +20819,7 @@
       <c r="AI48" s="70"/>
     </row>
     <row r="49" spans="2:35">
-      <c r="B49" s="97" t="s">
-        <v>113</v>
-      </c>
+      <c r="B49" s="97"/>
       <c r="C49" s="92"/>
       <c r="D49" s="92"/>
       <c r="E49" s="92"/>
@@ -20803,9 +20836,7 @@
       <c r="P49" s="92"/>
       <c r="Q49" s="92"/>
       <c r="R49" s="93"/>
-      <c r="S49" s="97" t="s">
-        <v>127</v>
-      </c>
+      <c r="S49" s="97"/>
       <c r="T49" s="92"/>
       <c r="U49" s="92"/>
       <c r="V49" s="92"/>
@@ -20903,7 +20934,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="189" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G52" s="189"/>
       <c r="H52" s="189"/>
@@ -20942,9 +20973,7 @@
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="189" t="s">
-        <v>128</v>
-      </c>
+      <c r="F53" s="189"/>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
       <c r="I53" s="189"/>
@@ -20982,9 +21011,7 @@
       <c r="C54" s="51"/>
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
-      <c r="F54" s="189" t="s">
-        <v>103</v>
-      </c>
+      <c r="F54" s="189"/>
       <c r="G54" s="189"/>
       <c r="H54" s="189"/>
       <c r="I54" s="189"/>
@@ -21023,7 +21050,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="189" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="G55" s="189"/>
       <c r="H55" s="189"/>
@@ -21217,11 +21244,55 @@
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="28673" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="28673" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C40026F-7338-4957-BD21-4AF8AA8EE850}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -23089,6 +23160,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -23105,7 +23177,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -24582,9 +24654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="BF14" sqref="BF14"/>
     </sheetView>
   </sheetViews>
@@ -24598,7 +24671,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -25860,6 +25933,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -25876,7 +25950,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -26789,7 +26863,7 @@
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="176" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -26816,7 +26890,7 @@
       <c r="AC27" s="177"/>
       <c r="AD27" s="178"/>
       <c r="AE27" s="136" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="AF27" s="134"/>
       <c r="AG27" s="134"/>
@@ -26831,7 +26905,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
       <c r="F28" s="179" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G28" s="180"/>
       <c r="H28" s="180"/>
@@ -26871,7 +26945,7 @@
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
       <c r="F29" s="182" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G29" s="160"/>
       <c r="H29" s="160"/>
@@ -26911,7 +26985,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="185" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G30" s="158"/>
       <c r="H30" s="158"/>
@@ -26987,7 +27061,7 @@
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
       <c r="F32" s="185" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G32" s="158"/>
       <c r="H32" s="158"/>
@@ -27175,7 +27249,7 @@
     </row>
     <row r="37" spans="2:35">
       <c r="B37" s="145" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C37" s="146"/>
       <c r="D37" s="147"/>
@@ -27194,7 +27268,7 @@
       <c r="Q37" s="146"/>
       <c r="R37" s="148"/>
       <c r="S37" s="149" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="T37" s="92"/>
       <c r="U37" s="92"/>
@@ -27382,7 +27456,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="150" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -27705,7 +27779,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
       <c r="F51" s="184" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="G51" s="160"/>
       <c r="H51" s="160"/>
@@ -27745,7 +27819,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="184" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G52" s="160"/>
       <c r="H52" s="160"/>
@@ -27971,6 +28045,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -27987,7 +28062,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -29051,7 +29126,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="188" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="G32" s="173"/>
       <c r="H32" s="173"/>
@@ -29078,7 +29153,7 @@
       <c r="AC32" s="173"/>
       <c r="AD32" s="174"/>
       <c r="AE32" s="89" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="AF32" s="90"/>
       <c r="AG32" s="90"/>
@@ -29093,7 +29168,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -29133,7 +29208,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -29173,7 +29248,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -29249,7 +29324,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
       <c r="F37" s="185" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G37" s="158"/>
       <c r="H37" s="158"/>
@@ -29437,7 +29512,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="140" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C42" s="143"/>
       <c r="D42" s="142"/>
@@ -29456,7 +29531,7 @@
       <c r="Q42" s="138"/>
       <c r="R42" s="139"/>
       <c r="S42" s="144" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="T42" s="138"/>
       <c r="U42" s="92"/>
@@ -29494,7 +29569,7 @@
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
       <c r="S43" s="97" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
@@ -29515,7 +29590,7 @@
     </row>
     <row r="44" spans="2:35">
       <c r="B44" s="94" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
@@ -29570,7 +29645,7 @@
       <c r="Q45" s="95"/>
       <c r="R45" s="96"/>
       <c r="S45" s="94" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="T45" s="95"/>
       <c r="U45" s="95"/>
@@ -29608,7 +29683,7 @@
       <c r="Q46" s="95"/>
       <c r="R46" s="96"/>
       <c r="S46" s="94" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="T46" s="95"/>
       <c r="U46" s="95"/>
@@ -29868,7 +29943,7 @@
       <c r="Q53" s="92"/>
       <c r="R53" s="93"/>
       <c r="S53" s="97" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="T53" s="92"/>
       <c r="U53" s="92"/>
@@ -29906,7 +29981,7 @@
       <c r="Q54" s="95"/>
       <c r="R54" s="96"/>
       <c r="S54" s="94" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="T54" s="95"/>
       <c r="U54" s="95"/>
@@ -30113,7 +30188,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="51"/>
       <c r="F60" s="184" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G60" s="160"/>
       <c r="H60" s="160"/>
@@ -30233,7 +30308,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
       <c r="F63" s="184" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G63" s="160"/>
       <c r="H63" s="160"/>
@@ -30459,6 +30534,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -30475,7 +30551,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -31539,7 +31615,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -31566,7 +31642,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -31581,7 +31657,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -31621,7 +31697,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -31661,7 +31737,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -31737,7 +31813,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
       <c r="F37" s="189" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G37" s="189"/>
       <c r="H37" s="189"/>
@@ -31925,7 +32001,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -31943,7 +32019,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="97" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -31981,7 +32057,7 @@
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
       <c r="S43" s="94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
@@ -32002,7 +32078,7 @@
     </row>
     <row r="44" spans="2:35">
       <c r="B44" s="94" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
@@ -32021,7 +32097,7 @@
       <c r="Q44" s="95"/>
       <c r="R44" s="96"/>
       <c r="S44" s="94" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="T44" s="95"/>
       <c r="U44" s="95"/>
@@ -32245,7 +32321,7 @@
       <c r="Q50" s="92"/>
       <c r="R50" s="93"/>
       <c r="S50" s="97" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="T50" s="92"/>
       <c r="U50" s="92"/>
@@ -32283,7 +32359,7 @@
       <c r="Q51" s="95"/>
       <c r="R51" s="96"/>
       <c r="S51" s="94" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="T51" s="95"/>
       <c r="U51" s="95"/>
@@ -32346,7 +32422,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -32426,7 +32502,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="189" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G55" s="189"/>
       <c r="H55" s="189"/>
@@ -32466,7 +32542,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="51"/>
       <c r="F56" s="189" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G56" s="189"/>
       <c r="H56" s="189"/>
@@ -32693,6 +32769,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AJ61"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -32709,7 +32786,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -33773,7 +33850,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -33800,7 +33877,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -33815,7 +33892,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -33855,7 +33932,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -33895,7 +33972,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -34157,7 +34234,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -34176,7 +34253,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="97" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -34197,7 +34274,7 @@
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="94" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C43" s="95"/>
       <c r="D43" s="95"/>
@@ -34216,7 +34293,7 @@
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
       <c r="S43" s="94" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
@@ -34273,7 +34350,7 @@
     </row>
     <row r="45" spans="2:35">
       <c r="B45" s="94" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C45" s="95"/>
       <c r="D45" s="95"/>
@@ -34292,7 +34369,7 @@
       <c r="Q45" s="95"/>
       <c r="R45" s="96"/>
       <c r="S45" s="94" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="T45" s="95"/>
       <c r="U45" s="95"/>
@@ -34313,7 +34390,7 @@
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="94" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C46" s="95"/>
       <c r="D46" s="95"/>
@@ -34332,7 +34409,7 @@
       <c r="Q46" s="95"/>
       <c r="R46" s="96"/>
       <c r="S46" s="94" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="T46" s="95"/>
       <c r="U46" s="95"/>
@@ -34353,7 +34430,7 @@
     </row>
     <row r="47" spans="2:35">
       <c r="B47" s="94" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C47" s="95"/>
       <c r="D47" s="95"/>
@@ -34372,7 +34449,7 @@
       <c r="Q47" s="95"/>
       <c r="R47" s="96"/>
       <c r="S47" s="94" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="T47" s="95"/>
       <c r="U47" s="95"/>
@@ -34393,7 +34470,7 @@
     </row>
     <row r="48" spans="2:35">
       <c r="B48" s="94" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C48" s="95"/>
       <c r="D48" s="95"/>
@@ -34412,7 +34489,7 @@
       <c r="Q48" s="95"/>
       <c r="R48" s="96"/>
       <c r="S48" s="94" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="T48" s="95"/>
       <c r="U48" s="95"/>
@@ -34547,7 +34624,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="97" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C52" s="92"/>
       <c r="D52" s="92"/>
@@ -34566,7 +34643,7 @@
       <c r="Q52" s="92"/>
       <c r="R52" s="93"/>
       <c r="S52" s="97" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="T52" s="92"/>
       <c r="U52" s="92"/>
@@ -34604,7 +34681,7 @@
       <c r="Q53" s="95"/>
       <c r="R53" s="96"/>
       <c r="S53" s="94" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="T53" s="95"/>
       <c r="U53" s="95"/>
@@ -34667,7 +34744,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="193" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="G55" s="194"/>
       <c r="H55" s="194"/>
@@ -34707,7 +34784,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="51"/>
       <c r="F56" s="193" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G56" s="194"/>
       <c r="H56" s="194"/>
@@ -34747,7 +34824,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="51"/>
       <c r="F57" s="193" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G57" s="194"/>
       <c r="H57" s="194"/>
@@ -34787,7 +34864,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="51"/>
       <c r="F58" s="193" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G58" s="194"/>
       <c r="H58" s="194"/>
@@ -35014,6 +35091,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -35030,7 +35108,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -36094,7 +36172,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="189" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
@@ -36121,7 +36199,7 @@
       <c r="AC32" s="189"/>
       <c r="AD32" s="189"/>
       <c r="AE32" s="190" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
@@ -36136,7 +36214,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="188" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G33" s="173"/>
       <c r="H33" s="173"/>
@@ -36176,7 +36254,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="188" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G34" s="173"/>
       <c r="H34" s="173"/>
@@ -36216,7 +36294,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="185" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -36478,7 +36556,7 @@
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="97" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -36497,7 +36575,7 @@
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="97" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="T42" s="92"/>
       <c r="U42" s="92"/>
@@ -36518,7 +36596,7 @@
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="94" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C43" s="95"/>
       <c r="D43" s="95"/>
@@ -36537,7 +36615,7 @@
       <c r="Q43" s="95"/>
       <c r="R43" s="96"/>
       <c r="S43" s="94" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="T43" s="95"/>
       <c r="U43" s="95"/>
@@ -36858,7 +36936,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="189" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="G52" s="189"/>
       <c r="H52" s="189"/>
@@ -36898,7 +36976,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
       <c r="F53" s="189" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="G53" s="189"/>
       <c r="H53" s="189"/>
@@ -36978,7 +37056,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="189" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="G55" s="189"/>
       <c r="H55" s="189"/>

--- a/Telegram02_Software Requirement Specification.xlsx
+++ b/Telegram02_Software Requirement Specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\New folder\Software-Engineering-Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester V\Software Engineering\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE4F868-5D6C-4D81-A7CA-B97119D2410E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CADE4F-D6E4-4EC6-9A33-268C1B97F4D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <sheet name="3.1.10 UC_XemNgoaiNgu" sheetId="34" r:id="rId14"/>
     <sheet name="3.1.11 UC_XemThongTinCaNhan" sheetId="35" r:id="rId15"/>
     <sheet name="3.1.12 UC_CapNhatThongTinCaNhan" sheetId="36" r:id="rId16"/>
-    <sheet name="3.1.13 UC_CapNhatAvatar" sheetId="37" r:id="rId17"/>
+    <sheet name="3.1.4 UC_CapNhatChungChi (2)" sheetId="42" r:id="rId17"/>
+    <sheet name="3.1.13 UC_CapNhatAvatar (2)" sheetId="43" r:id="rId18"/>
+    <sheet name="3.1.13 UC_CapNhatAvatar" sheetId="37" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Introduction'!$A$1:$AJ$55</definedName>
@@ -39,10 +41,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'3.1.10 UC_XemNgoaiNgu'!$A$1:$AJ$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'3.1.11 UC_XemThongTinCaNhan'!$A$1:$AJ$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'3.1.12 UC_CapNhatThongTinCaNhan'!$A$1:$AJ$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'3.1.13 UC_CapNhatAvatar'!$A$1:$AJ$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'3.1.13 UC_CapNhatAvatar'!$A$1:$AJ$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'3.1.13 UC_CapNhatAvatar (2)'!$A$1:$AJ$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.2 UC_Nhập số điện thoại'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.1.3 UC_CapNhatNgoaiNgu'!$A$1:$AJ$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'3.1.4 UC_CapNhatChungChi'!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'3.1.4 UC_CapNhatChungChi (2)'!$A$1:$AJ$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'3.1.5 UC_ThemNgoaiNgu'!$A$1:$AJ$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'3.1.6 UC_ThemChungChi'!$A$1:$AJ$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'3.1.7 UC_XoaNgoaiNgu'!$A$1:$AJ$59</definedName>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="221">
   <si>
     <t>Date</t>
   </si>
@@ -755,9 +759,6 @@
   </si>
   <si>
     <t>Cho phép người dùng sử dụng ứng dụng.</t>
-  </si>
-  <si>
-    <t>sdss</t>
   </si>
 </sst>
 </file>
@@ -2822,6 +2823,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27787</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B869EA9B-D28A-45C3-BD73-5B893E15E7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1863090"/>
+          <a:ext cx="6542887" cy="3506661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>94447</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F152B0B5-CF6E-4204-BE52-1DB315880EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="1712595"/>
+          <a:ext cx="6666697" cy="3207615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -18661,11 +18760,4399 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84314A2D-AC21-46F5-85B6-9A23E57498A9}">
+  <dimension ref="A1:AJ59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="152"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="152"/>
+      <c r="AJ1" s="166"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="167" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="156"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="170" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="169" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="151">
+        <v>43552</v>
+      </c>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="171" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="166"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="151">
+        <v>43552</v>
+      </c>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="156"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.6">
+      <c r="A5" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.6">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.6">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.6">
+      <c r="A9" s="49"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.6">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="50"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="50"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="50"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="50"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="50"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="50"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="50"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="50"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.6">
+      <c r="A19" s="29"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.6">
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.6">
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.6">
+      <c r="A22" s="29"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.6">
+      <c r="A25" s="29"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.6">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+    </row>
+    <row r="30" spans="1:36">
+      <c r="A30" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="B32" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="189" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="189"/>
+      <c r="S32" s="189"/>
+      <c r="T32" s="189"/>
+      <c r="U32" s="189"/>
+      <c r="V32" s="189"/>
+      <c r="W32" s="189"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="189"/>
+      <c r="AE32" s="190" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF32" s="191"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
+    </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="188" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="173"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="174"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="188" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
+      <c r="V34" s="173"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
+      <c r="AD34" s="173"/>
+      <c r="AE34" s="173"/>
+      <c r="AF34" s="173"/>
+      <c r="AG34" s="173"/>
+      <c r="AH34" s="173"/>
+      <c r="AI34" s="174"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="185" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="158"/>
+      <c r="Z35" s="158"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="158"/>
+      <c r="AD35" s="158"/>
+      <c r="AE35" s="158"/>
+      <c r="AF35" s="158"/>
+      <c r="AG35" s="158"/>
+      <c r="AH35" s="158"/>
+      <c r="AI35" s="186"/>
+    </row>
+    <row r="36" spans="2:35">
+      <c r="B36" s="58"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="160"/>
+      <c r="U36" s="160"/>
+      <c r="V36" s="160"/>
+      <c r="W36" s="160"/>
+      <c r="X36" s="160"/>
+      <c r="Y36" s="160"/>
+      <c r="Z36" s="160"/>
+      <c r="AA36" s="160"/>
+      <c r="AB36" s="160"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="160"/>
+      <c r="AE36" s="160"/>
+      <c r="AF36" s="160"/>
+      <c r="AG36" s="160"/>
+      <c r="AH36" s="160"/>
+      <c r="AI36" s="183"/>
+    </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="189"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="189"/>
+      <c r="O37" s="189"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="189"/>
+      <c r="S37" s="189"/>
+      <c r="T37" s="189"/>
+      <c r="U37" s="189"/>
+      <c r="V37" s="189"/>
+      <c r="W37" s="189"/>
+      <c r="X37" s="189"/>
+      <c r="Y37" s="189"/>
+      <c r="Z37" s="189"/>
+      <c r="AA37" s="189"/>
+      <c r="AB37" s="189"/>
+      <c r="AC37" s="189"/>
+      <c r="AD37" s="189"/>
+      <c r="AE37" s="189"/>
+      <c r="AF37" s="189"/>
+      <c r="AG37" s="189"/>
+      <c r="AH37" s="189"/>
+      <c r="AI37" s="189"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="58"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="189"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="189"/>
+      <c r="U38" s="189"/>
+      <c r="V38" s="189"/>
+      <c r="W38" s="189"/>
+      <c r="X38" s="189"/>
+      <c r="Y38" s="189"/>
+      <c r="Z38" s="189"/>
+      <c r="AA38" s="189"/>
+      <c r="AB38" s="189"/>
+      <c r="AC38" s="189"/>
+      <c r="AD38" s="189"/>
+      <c r="AE38" s="189"/>
+      <c r="AF38" s="189"/>
+      <c r="AG38" s="189"/>
+      <c r="AH38" s="189"/>
+      <c r="AI38" s="189"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="187" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="59"/>
+    </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="59"/>
+    </row>
+    <row r="41" spans="2:35">
+      <c r="B41" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="64"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92"/>
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="92"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="92"/>
+      <c r="AE42" s="92"/>
+      <c r="AF42" s="92"/>
+      <c r="AG42" s="92"/>
+      <c r="AH42" s="92"/>
+      <c r="AI42" s="93"/>
+    </row>
+    <row r="43" spans="2:35">
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="96"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="96"/>
+    </row>
+    <row r="45" spans="2:35">
+      <c r="B45" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="96"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="95"/>
+      <c r="AE46" s="95"/>
+      <c r="AF46" s="95"/>
+      <c r="AG46" s="95"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="96"/>
+    </row>
+    <row r="47" spans="2:35">
+      <c r="B47" s="94"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="95"/>
+      <c r="AE47" s="95"/>
+      <c r="AF47" s="95"/>
+      <c r="AG47" s="95"/>
+      <c r="AH47" s="95"/>
+      <c r="AI47" s="96"/>
+    </row>
+    <row r="48" spans="2:35">
+      <c r="B48" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="67"/>
+    </row>
+    <row r="49" spans="2:35">
+      <c r="B49" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="69"/>
+      <c r="AA49" s="69"/>
+      <c r="AB49" s="69"/>
+      <c r="AC49" s="69"/>
+      <c r="AD49" s="69"/>
+      <c r="AE49" s="69"/>
+      <c r="AF49" s="69"/>
+      <c r="AG49" s="69"/>
+      <c r="AH49" s="69"/>
+      <c r="AI49" s="70"/>
+    </row>
+    <row r="50" spans="2:35">
+      <c r="B50" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="T50" s="92"/>
+      <c r="U50" s="92"/>
+      <c r="V50" s="92"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="92"/>
+      <c r="AE50" s="92"/>
+      <c r="AF50" s="92"/>
+      <c r="AG50" s="92"/>
+      <c r="AH50" s="92"/>
+      <c r="AI50" s="93"/>
+    </row>
+    <row r="51" spans="2:35">
+      <c r="B51" s="94"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="95"/>
+      <c r="AD51" s="95"/>
+      <c r="AE51" s="95"/>
+      <c r="AF51" s="95"/>
+      <c r="AG51" s="95"/>
+      <c r="AH51" s="95"/>
+      <c r="AI51" s="96"/>
+    </row>
+    <row r="52" spans="2:35">
+      <c r="B52" s="94"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="95"/>
+      <c r="AE52" s="95"/>
+      <c r="AF52" s="95"/>
+      <c r="AG52" s="95"/>
+      <c r="AH52" s="95"/>
+      <c r="AI52" s="96"/>
+    </row>
+    <row r="53" spans="2:35">
+      <c r="B53" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="189"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="189"/>
+      <c r="K53" s="189"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="189"/>
+      <c r="O53" s="189"/>
+      <c r="P53" s="189"/>
+      <c r="Q53" s="189"/>
+      <c r="R53" s="189"/>
+      <c r="S53" s="189"/>
+      <c r="T53" s="189"/>
+      <c r="U53" s="189"/>
+      <c r="V53" s="189"/>
+      <c r="W53" s="189"/>
+      <c r="X53" s="189"/>
+      <c r="Y53" s="189"/>
+      <c r="Z53" s="189"/>
+      <c r="AA53" s="189"/>
+      <c r="AB53" s="189"/>
+      <c r="AC53" s="189"/>
+      <c r="AD53" s="189"/>
+      <c r="AE53" s="189"/>
+      <c r="AF53" s="189"/>
+      <c r="AG53" s="189"/>
+      <c r="AH53" s="189"/>
+      <c r="AI53" s="189"/>
+    </row>
+    <row r="54" spans="2:35">
+      <c r="B54" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="189"/>
+      <c r="H54" s="189"/>
+      <c r="I54" s="189"/>
+      <c r="J54" s="189"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="189"/>
+      <c r="M54" s="189"/>
+      <c r="N54" s="189"/>
+      <c r="O54" s="189"/>
+      <c r="P54" s="189"/>
+      <c r="Q54" s="189"/>
+      <c r="R54" s="189"/>
+      <c r="S54" s="189"/>
+      <c r="T54" s="189"/>
+      <c r="U54" s="189"/>
+      <c r="V54" s="189"/>
+      <c r="W54" s="189"/>
+      <c r="X54" s="189"/>
+      <c r="Y54" s="189"/>
+      <c r="Z54" s="189"/>
+      <c r="AA54" s="189"/>
+      <c r="AB54" s="189"/>
+      <c r="AC54" s="189"/>
+      <c r="AD54" s="189"/>
+      <c r="AE54" s="189"/>
+      <c r="AF54" s="189"/>
+      <c r="AG54" s="189"/>
+      <c r="AH54" s="189"/>
+      <c r="AI54" s="189"/>
+    </row>
+    <row r="55" spans="2:35">
+      <c r="B55" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="189" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="189"/>
+      <c r="H55" s="189"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="189"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="189"/>
+      <c r="M55" s="189"/>
+      <c r="N55" s="189"/>
+      <c r="O55" s="189"/>
+      <c r="P55" s="189"/>
+      <c r="Q55" s="189"/>
+      <c r="R55" s="189"/>
+      <c r="S55" s="189"/>
+      <c r="T55" s="189"/>
+      <c r="U55" s="189"/>
+      <c r="V55" s="189"/>
+      <c r="W55" s="189"/>
+      <c r="X55" s="189"/>
+      <c r="Y55" s="189"/>
+      <c r="Z55" s="189"/>
+      <c r="AA55" s="189"/>
+      <c r="AB55" s="189"/>
+      <c r="AC55" s="189"/>
+      <c r="AD55" s="189"/>
+      <c r="AE55" s="189"/>
+      <c r="AF55" s="189"/>
+      <c r="AG55" s="189"/>
+      <c r="AH55" s="189"/>
+      <c r="AI55" s="189"/>
+    </row>
+    <row r="56" spans="2:35">
+      <c r="B56" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="189" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="189"/>
+      <c r="H56" s="189"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="189"/>
+      <c r="K56" s="189"/>
+      <c r="L56" s="189"/>
+      <c r="M56" s="189"/>
+      <c r="N56" s="189"/>
+      <c r="O56" s="189"/>
+      <c r="P56" s="189"/>
+      <c r="Q56" s="189"/>
+      <c r="R56" s="189"/>
+      <c r="S56" s="189"/>
+      <c r="T56" s="189"/>
+      <c r="U56" s="189"/>
+      <c r="V56" s="189"/>
+      <c r="W56" s="189"/>
+      <c r="X56" s="189"/>
+      <c r="Y56" s="189"/>
+      <c r="Z56" s="189"/>
+      <c r="AA56" s="189"/>
+      <c r="AB56" s="189"/>
+      <c r="AC56" s="189"/>
+      <c r="AD56" s="189"/>
+      <c r="AE56" s="189"/>
+      <c r="AF56" s="189"/>
+      <c r="AG56" s="189"/>
+      <c r="AH56" s="189"/>
+      <c r="AI56" s="189"/>
+    </row>
+    <row r="57" spans="2:35">
+      <c r="B57" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="189" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="189"/>
+      <c r="H57" s="189"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="189"/>
+      <c r="K57" s="189"/>
+      <c r="L57" s="189"/>
+      <c r="M57" s="189"/>
+      <c r="N57" s="189"/>
+      <c r="O57" s="189"/>
+      <c r="P57" s="189"/>
+      <c r="Q57" s="189"/>
+      <c r="R57" s="189"/>
+      <c r="S57" s="189"/>
+      <c r="T57" s="189"/>
+      <c r="U57" s="189"/>
+      <c r="V57" s="189"/>
+      <c r="W57" s="189"/>
+      <c r="X57" s="189"/>
+      <c r="Y57" s="189"/>
+      <c r="Z57" s="189"/>
+      <c r="AA57" s="189"/>
+      <c r="AB57" s="189"/>
+      <c r="AC57" s="189"/>
+      <c r="AD57" s="189"/>
+      <c r="AE57" s="189"/>
+      <c r="AF57" s="189"/>
+      <c r="AG57" s="189"/>
+      <c r="AH57" s="189"/>
+      <c r="AI57" s="189"/>
+    </row>
+    <row r="58" spans="2:35">
+      <c r="B58" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="189"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="189"/>
+      <c r="K58" s="189"/>
+      <c r="L58" s="189"/>
+      <c r="M58" s="189"/>
+      <c r="N58" s="189"/>
+      <c r="O58" s="189"/>
+      <c r="P58" s="189"/>
+      <c r="Q58" s="189"/>
+      <c r="R58" s="189"/>
+      <c r="S58" s="189"/>
+      <c r="T58" s="189"/>
+      <c r="U58" s="189"/>
+      <c r="V58" s="189"/>
+      <c r="W58" s="189"/>
+      <c r="X58" s="189"/>
+      <c r="Y58" s="189"/>
+      <c r="Z58" s="189"/>
+      <c r="AA58" s="189"/>
+      <c r="AB58" s="189"/>
+      <c r="AC58" s="189"/>
+      <c r="AD58" s="189"/>
+      <c r="AE58" s="189"/>
+      <c r="AF58" s="189"/>
+      <c r="AG58" s="189"/>
+      <c r="AH58" s="189"/>
+      <c r="AI58" s="189"/>
+    </row>
+    <row r="59" spans="2:35">
+      <c r="B59" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="189"/>
+      <c r="H59" s="189"/>
+      <c r="I59" s="189"/>
+      <c r="J59" s="189"/>
+      <c r="K59" s="189"/>
+      <c r="L59" s="189"/>
+      <c r="M59" s="189"/>
+      <c r="N59" s="189"/>
+      <c r="O59" s="189"/>
+      <c r="P59" s="189"/>
+      <c r="Q59" s="189"/>
+      <c r="R59" s="189"/>
+      <c r="S59" s="189"/>
+      <c r="T59" s="189"/>
+      <c r="U59" s="189"/>
+      <c r="V59" s="189"/>
+      <c r="W59" s="189"/>
+      <c r="X59" s="189"/>
+      <c r="Y59" s="189"/>
+      <c r="Z59" s="189"/>
+      <c r="AA59" s="189"/>
+      <c r="AB59" s="189"/>
+      <c r="AC59" s="189"/>
+      <c r="AD59" s="189"/>
+      <c r="AE59" s="189"/>
+      <c r="AF59" s="189"/>
+      <c r="AG59" s="189"/>
+      <c r="AH59" s="189"/>
+      <c r="AI59" s="189"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="26">
+    <mergeCell ref="F56:AI56"/>
+    <mergeCell ref="F57:AI57"/>
+    <mergeCell ref="F58:AI58"/>
+    <mergeCell ref="F59:AI59"/>
+    <mergeCell ref="F35:AI36"/>
+    <mergeCell ref="F37:AI38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F53:AI53"/>
+    <mergeCell ref="F54:AI54"/>
+    <mergeCell ref="F55:AI55"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="F32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="F33:AI33"/>
+    <mergeCell ref="F34:AI34"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:K39" xr:uid="{1D50BE75-B30E-44A9-9E61-8AE48429F1F6}">
+      <formula1>"External, Temporal"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6DB33D-6CF6-49E8-A973-9B7FCBBF9A21}">
+  <dimension ref="A1:AJ58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN35" sqref="AN35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="152"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="152"/>
+      <c r="AJ1" s="166"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="167" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="156"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="170" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="169" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="151">
+        <v>43552</v>
+      </c>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="156"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="151">
+        <v>43552</v>
+      </c>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="156"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.6">
+      <c r="A5" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.6">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.6">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.6">
+      <c r="A9" s="49"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.6">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="50"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="50"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="50"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="50"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="50"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="50"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="50"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="50"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.6">
+      <c r="A19" s="29"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.6">
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.6">
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.6">
+      <c r="A22" s="29"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.6">
+      <c r="A25" s="29"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.6">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+    </row>
+    <row r="30" spans="1:36">
+      <c r="A30" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="B32" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="189" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="189"/>
+      <c r="S32" s="189"/>
+      <c r="T32" s="189"/>
+      <c r="U32" s="189"/>
+      <c r="V32" s="189"/>
+      <c r="W32" s="189"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="189"/>
+      <c r="AE32" s="190" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF32" s="191"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
+    </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="188" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="173"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="174"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="188" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
+      <c r="V34" s="173"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
+      <c r="AD34" s="173"/>
+      <c r="AE34" s="173"/>
+      <c r="AF34" s="173"/>
+      <c r="AG34" s="173"/>
+      <c r="AH34" s="173"/>
+      <c r="AI34" s="174"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="185" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="158"/>
+      <c r="Z35" s="158"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="158"/>
+      <c r="AD35" s="158"/>
+      <c r="AE35" s="158"/>
+      <c r="AF35" s="158"/>
+      <c r="AG35" s="158"/>
+      <c r="AH35" s="158"/>
+      <c r="AI35" s="186"/>
+    </row>
+    <row r="36" spans="2:35">
+      <c r="B36" s="58"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="160"/>
+      <c r="U36" s="160"/>
+      <c r="V36" s="160"/>
+      <c r="W36" s="160"/>
+      <c r="X36" s="160"/>
+      <c r="Y36" s="160"/>
+      <c r="Z36" s="160"/>
+      <c r="AA36" s="160"/>
+      <c r="AB36" s="160"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="160"/>
+      <c r="AE36" s="160"/>
+      <c r="AF36" s="160"/>
+      <c r="AG36" s="160"/>
+      <c r="AH36" s="160"/>
+      <c r="AI36" s="183"/>
+    </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="189"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="189"/>
+      <c r="O37" s="189"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="189"/>
+      <c r="S37" s="189"/>
+      <c r="T37" s="189"/>
+      <c r="U37" s="189"/>
+      <c r="V37" s="189"/>
+      <c r="W37" s="189"/>
+      <c r="X37" s="189"/>
+      <c r="Y37" s="189"/>
+      <c r="Z37" s="189"/>
+      <c r="AA37" s="189"/>
+      <c r="AB37" s="189"/>
+      <c r="AC37" s="189"/>
+      <c r="AD37" s="189"/>
+      <c r="AE37" s="189"/>
+      <c r="AF37" s="189"/>
+      <c r="AG37" s="189"/>
+      <c r="AH37" s="189"/>
+      <c r="AI37" s="189"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="58"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="189"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="189"/>
+      <c r="U38" s="189"/>
+      <c r="V38" s="189"/>
+      <c r="W38" s="189"/>
+      <c r="X38" s="189"/>
+      <c r="Y38" s="189"/>
+      <c r="Z38" s="189"/>
+      <c r="AA38" s="189"/>
+      <c r="AB38" s="189"/>
+      <c r="AC38" s="189"/>
+      <c r="AD38" s="189"/>
+      <c r="AE38" s="189"/>
+      <c r="AF38" s="189"/>
+      <c r="AG38" s="189"/>
+      <c r="AH38" s="189"/>
+      <c r="AI38" s="189"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="187" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="59"/>
+    </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="59"/>
+    </row>
+    <row r="41" spans="2:35">
+      <c r="B41" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="64"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92"/>
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="92"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="92"/>
+      <c r="AE42" s="92"/>
+      <c r="AF42" s="92"/>
+      <c r="AG42" s="92"/>
+      <c r="AH42" s="92"/>
+      <c r="AI42" s="93"/>
+    </row>
+    <row r="43" spans="2:35">
+      <c r="B43" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="96"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="96"/>
+    </row>
+    <row r="45" spans="2:35">
+      <c r="B45" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="96"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="95"/>
+      <c r="AE46" s="95"/>
+      <c r="AF46" s="95"/>
+      <c r="AG46" s="95"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="96"/>
+    </row>
+    <row r="47" spans="2:35">
+      <c r="B47" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="66"/>
+      <c r="W47" s="66"/>
+      <c r="X47" s="66"/>
+      <c r="Y47" s="66"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="67"/>
+    </row>
+    <row r="48" spans="2:35">
+      <c r="B48" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="69"/>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="69"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="69"/>
+      <c r="AF48" s="69"/>
+      <c r="AG48" s="69"/>
+      <c r="AH48" s="69"/>
+      <c r="AI48" s="70"/>
+    </row>
+    <row r="49" spans="2:35">
+      <c r="B49" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="T49" s="92"/>
+      <c r="U49" s="92"/>
+      <c r="V49" s="92"/>
+      <c r="W49" s="92"/>
+      <c r="X49" s="92"/>
+      <c r="Y49" s="92"/>
+      <c r="Z49" s="92"/>
+      <c r="AA49" s="92"/>
+      <c r="AB49" s="92"/>
+      <c r="AC49" s="92"/>
+      <c r="AD49" s="92"/>
+      <c r="AE49" s="92"/>
+      <c r="AF49" s="92"/>
+      <c r="AG49" s="92"/>
+      <c r="AH49" s="92"/>
+      <c r="AI49" s="93"/>
+    </row>
+    <row r="50" spans="2:35">
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="95"/>
+      <c r="AF50" s="95"/>
+      <c r="AG50" s="95"/>
+      <c r="AH50" s="95"/>
+      <c r="AI50" s="96"/>
+    </row>
+    <row r="51" spans="2:35">
+      <c r="B51" s="94"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="95"/>
+      <c r="AD51" s="95"/>
+      <c r="AE51" s="95"/>
+      <c r="AF51" s="95"/>
+      <c r="AG51" s="95"/>
+      <c r="AH51" s="95"/>
+      <c r="AI51" s="96"/>
+    </row>
+    <row r="52" spans="2:35">
+      <c r="B52" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="189"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="189"/>
+      <c r="J52" s="189"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="189"/>
+      <c r="M52" s="189"/>
+      <c r="N52" s="189"/>
+      <c r="O52" s="189"/>
+      <c r="P52" s="189"/>
+      <c r="Q52" s="189"/>
+      <c r="R52" s="189"/>
+      <c r="S52" s="189"/>
+      <c r="T52" s="189"/>
+      <c r="U52" s="189"/>
+      <c r="V52" s="189"/>
+      <c r="W52" s="189"/>
+      <c r="X52" s="189"/>
+      <c r="Y52" s="189"/>
+      <c r="Z52" s="189"/>
+      <c r="AA52" s="189"/>
+      <c r="AB52" s="189"/>
+      <c r="AC52" s="189"/>
+      <c r="AD52" s="189"/>
+      <c r="AE52" s="189"/>
+      <c r="AF52" s="189"/>
+      <c r="AG52" s="189"/>
+      <c r="AH52" s="189"/>
+      <c r="AI52" s="189"/>
+    </row>
+    <row r="53" spans="2:35">
+      <c r="B53" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="189" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="189"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="189"/>
+      <c r="K53" s="189"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="189"/>
+      <c r="O53" s="189"/>
+      <c r="P53" s="189"/>
+      <c r="Q53" s="189"/>
+      <c r="R53" s="189"/>
+      <c r="S53" s="189"/>
+      <c r="T53" s="189"/>
+      <c r="U53" s="189"/>
+      <c r="V53" s="189"/>
+      <c r="W53" s="189"/>
+      <c r="X53" s="189"/>
+      <c r="Y53" s="189"/>
+      <c r="Z53" s="189"/>
+      <c r="AA53" s="189"/>
+      <c r="AB53" s="189"/>
+      <c r="AC53" s="189"/>
+      <c r="AD53" s="189"/>
+      <c r="AE53" s="189"/>
+      <c r="AF53" s="189"/>
+      <c r="AG53" s="189"/>
+      <c r="AH53" s="189"/>
+      <c r="AI53" s="189"/>
+    </row>
+    <row r="54" spans="2:35">
+      <c r="B54" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="189" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="189"/>
+      <c r="H54" s="189"/>
+      <c r="I54" s="189"/>
+      <c r="J54" s="189"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="189"/>
+      <c r="M54" s="189"/>
+      <c r="N54" s="189"/>
+      <c r="O54" s="189"/>
+      <c r="P54" s="189"/>
+      <c r="Q54" s="189"/>
+      <c r="R54" s="189"/>
+      <c r="S54" s="189"/>
+      <c r="T54" s="189"/>
+      <c r="U54" s="189"/>
+      <c r="V54" s="189"/>
+      <c r="W54" s="189"/>
+      <c r="X54" s="189"/>
+      <c r="Y54" s="189"/>
+      <c r="Z54" s="189"/>
+      <c r="AA54" s="189"/>
+      <c r="AB54" s="189"/>
+      <c r="AC54" s="189"/>
+      <c r="AD54" s="189"/>
+      <c r="AE54" s="189"/>
+      <c r="AF54" s="189"/>
+      <c r="AG54" s="189"/>
+      <c r="AH54" s="189"/>
+      <c r="AI54" s="189"/>
+    </row>
+    <row r="55" spans="2:35">
+      <c r="B55" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="189" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55" s="189"/>
+      <c r="H55" s="189"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="189"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="189"/>
+      <c r="M55" s="189"/>
+      <c r="N55" s="189"/>
+      <c r="O55" s="189"/>
+      <c r="P55" s="189"/>
+      <c r="Q55" s="189"/>
+      <c r="R55" s="189"/>
+      <c r="S55" s="189"/>
+      <c r="T55" s="189"/>
+      <c r="U55" s="189"/>
+      <c r="V55" s="189"/>
+      <c r="W55" s="189"/>
+      <c r="X55" s="189"/>
+      <c r="Y55" s="189"/>
+      <c r="Z55" s="189"/>
+      <c r="AA55" s="189"/>
+      <c r="AB55" s="189"/>
+      <c r="AC55" s="189"/>
+      <c r="AD55" s="189"/>
+      <c r="AE55" s="189"/>
+      <c r="AF55" s="189"/>
+      <c r="AG55" s="189"/>
+      <c r="AH55" s="189"/>
+      <c r="AI55" s="189"/>
+    </row>
+    <row r="56" spans="2:35">
+      <c r="B56" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="189" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="189"/>
+      <c r="H56" s="189"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="189"/>
+      <c r="K56" s="189"/>
+      <c r="L56" s="189"/>
+      <c r="M56" s="189"/>
+      <c r="N56" s="189"/>
+      <c r="O56" s="189"/>
+      <c r="P56" s="189"/>
+      <c r="Q56" s="189"/>
+      <c r="R56" s="189"/>
+      <c r="S56" s="189"/>
+      <c r="T56" s="189"/>
+      <c r="U56" s="189"/>
+      <c r="V56" s="189"/>
+      <c r="W56" s="189"/>
+      <c r="X56" s="189"/>
+      <c r="Y56" s="189"/>
+      <c r="Z56" s="189"/>
+      <c r="AA56" s="189"/>
+      <c r="AB56" s="189"/>
+      <c r="AC56" s="189"/>
+      <c r="AD56" s="189"/>
+      <c r="AE56" s="189"/>
+      <c r="AF56" s="189"/>
+      <c r="AG56" s="189"/>
+      <c r="AH56" s="189"/>
+      <c r="AI56" s="189"/>
+    </row>
+    <row r="57" spans="2:35">
+      <c r="B57" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="189"/>
+      <c r="H57" s="189"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="189"/>
+      <c r="K57" s="189"/>
+      <c r="L57" s="189"/>
+      <c r="M57" s="189"/>
+      <c r="N57" s="189"/>
+      <c r="O57" s="189"/>
+      <c r="P57" s="189"/>
+      <c r="Q57" s="189"/>
+      <c r="R57" s="189"/>
+      <c r="S57" s="189"/>
+      <c r="T57" s="189"/>
+      <c r="U57" s="189"/>
+      <c r="V57" s="189"/>
+      <c r="W57" s="189"/>
+      <c r="X57" s="189"/>
+      <c r="Y57" s="189"/>
+      <c r="Z57" s="189"/>
+      <c r="AA57" s="189"/>
+      <c r="AB57" s="189"/>
+      <c r="AC57" s="189"/>
+      <c r="AD57" s="189"/>
+      <c r="AE57" s="189"/>
+      <c r="AF57" s="189"/>
+      <c r="AG57" s="189"/>
+      <c r="AH57" s="189"/>
+      <c r="AI57" s="189"/>
+    </row>
+    <row r="58" spans="2:35">
+      <c r="B58" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="189"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="189"/>
+      <c r="K58" s="189"/>
+      <c r="L58" s="189"/>
+      <c r="M58" s="189"/>
+      <c r="N58" s="189"/>
+      <c r="O58" s="189"/>
+      <c r="P58" s="189"/>
+      <c r="Q58" s="189"/>
+      <c r="R58" s="189"/>
+      <c r="S58" s="189"/>
+      <c r="T58" s="189"/>
+      <c r="U58" s="189"/>
+      <c r="V58" s="189"/>
+      <c r="W58" s="189"/>
+      <c r="X58" s="189"/>
+      <c r="Y58" s="189"/>
+      <c r="Z58" s="189"/>
+      <c r="AA58" s="189"/>
+      <c r="AB58" s="189"/>
+      <c r="AC58" s="189"/>
+      <c r="AD58" s="189"/>
+      <c r="AE58" s="189"/>
+      <c r="AF58" s="189"/>
+      <c r="AG58" s="189"/>
+      <c r="AH58" s="189"/>
+      <c r="AI58" s="189"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="26">
+    <mergeCell ref="F55:AI55"/>
+    <mergeCell ref="F56:AI56"/>
+    <mergeCell ref="F57:AI57"/>
+    <mergeCell ref="F58:AI58"/>
+    <mergeCell ref="F35:AI36"/>
+    <mergeCell ref="F37:AI38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F52:AI52"/>
+    <mergeCell ref="F53:AI53"/>
+    <mergeCell ref="F54:AI54"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="F32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="F33:AI33"/>
+    <mergeCell ref="F34:AI34"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:K39" xr:uid="{D914F8AA-9DA5-4F9A-9148-4E44625F18AC}">
+      <formula1>"External, Temporal"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN35" sqref="AN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
@@ -30076,7 +34563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -34502,8 +38989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:V2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
@@ -34516,7 +39003,7 @@
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
       <c r="E1" s="161" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
